--- a/result/without_base/12/arousal/s05_3.xlsx
+++ b/result/without_base/12/arousal/s05_3.xlsx
@@ -492,7 +492,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C2" t="n">
-        <v>41755.375</v>
+        <v>41746.787109375</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5331818244673989</v>
+        <v>0.5287500023841858</v>
       </c>
       <c r="E2" t="n">
-        <v>41754.82919034091</v>
+        <v>41747.91370738636</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +589,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5675000250339508</v>
       </c>
       <c r="C3" t="n">
-        <v>41007.607421875</v>
+        <v>41009.359375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5527272630821575</v>
+        <v>0.5542045398191973</v>
       </c>
       <c r="E3" t="n">
-        <v>41005.59801136364</v>
+        <v>41009.4140625</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +606,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4375</v>
+        <v>0.5425000190734863</v>
       </c>
       <c r="C4" t="n">
-        <v>40267.43359375</v>
+        <v>40261.59765625</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5475000034679066</v>
+        <v>0.5788636370138689</v>
       </c>
       <c r="E4" t="n">
-        <v>40265.37144886364</v>
+        <v>40260.72194602273</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +623,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5150000005960464</v>
+        <v>0.4675000011920929</v>
       </c>
       <c r="C5" t="n">
-        <v>39536.89453125</v>
+        <v>39532.412109375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5735227357257496</v>
+        <v>0.5240909023718401</v>
       </c>
       <c r="E5" t="n">
-        <v>39535.42151988636</v>
+        <v>39531.86044034091</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +640,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.4674999862909317</v>
+        <v>0.5625</v>
       </c>
       <c r="C6" t="n">
-        <v>38814.998046875</v>
+        <v>38808.5859375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5621590912342072</v>
+        <v>0.5773863684047352</v>
       </c>
       <c r="E6" t="n">
-        <v>38812.78835227273</v>
+        <v>38807.53409090909</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +657,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.574999988079071</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C7" t="n">
-        <v>38105.1640625</v>
+        <v>38094.216796875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5582954477180134</v>
+        <v>0.5870454582301053</v>
       </c>
       <c r="E7" t="n">
-        <v>38103.51278409091</v>
+        <v>38093.12464488636</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +674,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4525000005960464</v>
+        <v>0.5799999833106995</v>
       </c>
       <c r="C8" t="n">
-        <v>37402.111328125</v>
+        <v>37390.3515625</v>
       </c>
       <c r="D8" t="n">
-        <v>0.522499992088838</v>
+        <v>0.5931818214329806</v>
       </c>
       <c r="E8" t="n">
-        <v>37400.77308238636</v>
+        <v>37389.44495738636</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +691,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C9" t="n">
-        <v>36708.21484375</v>
+        <v>36697.064453125</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6115909110416066</v>
+        <v>0.5796590935100209</v>
       </c>
       <c r="E9" t="n">
-        <v>36706.29119318182</v>
+        <v>36696.05752840909</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +708,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5075000077486038</v>
       </c>
       <c r="C10" t="n">
-        <v>36028.9140625</v>
+        <v>36013.4921875</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6282954486933622</v>
+        <v>0.6101136370138689</v>
       </c>
       <c r="E10" t="n">
-        <v>36026.95490056818</v>
+        <v>36012.30042613636</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +725,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C11" t="n">
-        <v>35361.109375</v>
+        <v>35340.970703125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6142045422033831</v>
+        <v>0.6156818162311207</v>
       </c>
       <c r="E11" t="n">
-        <v>35358.94034090909</v>
+        <v>35339.64275568182</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +742,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.4849999845027924</v>
+        <v>0.4924999922513962</v>
       </c>
       <c r="C12" t="n">
-        <v>34702.884765625</v>
+        <v>34678.931640625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5790909095243975</v>
+        <v>0.5940909060564908</v>
       </c>
       <c r="E12" t="n">
-        <v>34700.93465909091</v>
+        <v>34677.77840909091</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +759,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.4275000095367432</v>
+        <v>0.4624999910593033</v>
       </c>
       <c r="C13" t="n">
-        <v>34054.134765625</v>
+        <v>34028.265625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.60818181254647</v>
+        <v>0.5738636309450323</v>
       </c>
       <c r="E13" t="n">
-        <v>34052.40802556818</v>
+        <v>34027.00461647727</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +776,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5625</v>
+        <v>0.5724999904632568</v>
       </c>
       <c r="C14" t="n">
-        <v>33416.609375</v>
+        <v>33387.126953125</v>
       </c>
       <c r="D14" t="n">
-        <v>0.653522713617845</v>
+        <v>0.6219318183985624</v>
       </c>
       <c r="E14" t="n">
-        <v>33415.01633522727</v>
+        <v>33385.80717329546</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +793,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C15" t="n">
-        <v>32789.947265625</v>
+        <v>32757.0185546875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6457954428412698</v>
+        <v>0.6267045465382662</v>
       </c>
       <c r="E15" t="n">
-        <v>32788.29794034091</v>
+        <v>32755.68714488636</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +810,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4924999922513962</v>
+        <v>0.5750000178813934</v>
       </c>
       <c r="C16" t="n">
-        <v>32173.8525390625</v>
+        <v>32137.2373046875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5977272716435519</v>
+        <v>0.6074999950148843</v>
       </c>
       <c r="E16" t="n">
-        <v>32171.87784090909</v>
+        <v>32136.44655539773</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +827,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5625</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C17" t="n">
-        <v>31567.5810546875</v>
+        <v>31528.2548828125</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6263636350631714</v>
+        <v>0.6260227344252847</v>
       </c>
       <c r="E17" t="n">
-        <v>31565.81569602273</v>
+        <v>31527.17560369318</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +844,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.4849999845027924</v>
       </c>
       <c r="C18" t="n">
-        <v>30971.484375</v>
+        <v>30929.955078125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.664318176833066</v>
+        <v>0.6228409084406766</v>
       </c>
       <c r="E18" t="n">
-        <v>30969.46306818182</v>
+        <v>30928.81782670454</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +861,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C19" t="n">
-        <v>30385.59375</v>
+        <v>30341.6171875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6685227264057506</v>
+        <v>0.6511363712224093</v>
       </c>
       <c r="E19" t="n">
-        <v>30383.70063920454</v>
+        <v>30340.54936079546</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +878,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4874999970197678</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C20" t="n">
-        <v>29809.2626953125</v>
+        <v>29763.2314453125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6719318140636791</v>
+        <v>0.657045451077548</v>
       </c>
       <c r="E20" t="n">
-        <v>29807.62340198864</v>
+        <v>29762.34978693182</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +895,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4249999970197678</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C21" t="n">
-        <v>29243.4599609375</v>
+        <v>29195.0029296875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6288636326789856</v>
+        <v>0.6402272744612261</v>
       </c>
       <c r="E21" t="n">
-        <v>29241.75461647727</v>
+        <v>29194.17755681818</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +912,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.6150000095367432</v>
       </c>
       <c r="C22" t="n">
-        <v>28686.8857421875</v>
+        <v>28636.732421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6577272631905295</v>
+        <v>0.6676136363636364</v>
       </c>
       <c r="E22" t="n">
-        <v>28685.06161221591</v>
+        <v>28635.83913352273</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +929,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C23" t="n">
-        <v>28139.8212890625</v>
+        <v>28087.87890625</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6811363697052002</v>
+        <v>0.6740909056230024</v>
       </c>
       <c r="E23" t="n">
-        <v>28138.07634943182</v>
+        <v>28087.06906960227</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +946,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.570000022649765</v>
       </c>
       <c r="C24" t="n">
-        <v>27603.3583984375</v>
+        <v>27549.740234375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6615909121253274</v>
+        <v>0.6564772725105286</v>
       </c>
       <c r="E24" t="n">
-        <v>27601.59321732954</v>
+        <v>27548.63245738636</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +963,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.4574999958276749</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C25" t="n">
-        <v>27075.26171875</v>
+        <v>27019.9169921875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6686363653703169</v>
+        <v>0.6918181831186468</v>
       </c>
       <c r="E25" t="n">
-        <v>27073.35174005682</v>
+        <v>27018.66139914773</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +980,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4800000041723251</v>
+        <v>0.550000011920929</v>
       </c>
       <c r="C26" t="n">
-        <v>26556.474609375</v>
+        <v>26499.3212890625</v>
       </c>
       <c r="D26" t="n">
-        <v>0.664659093726765</v>
+        <v>0.6792045344005931</v>
       </c>
       <c r="E26" t="n">
-        <v>26554.76615767046</v>
+        <v>26498.51296164773</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +997,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.4975000023841858</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C27" t="n">
-        <v>26047.255859375</v>
+        <v>25989.091796875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6563636335459623</v>
+        <v>0.6305681792172518</v>
       </c>
       <c r="E27" t="n">
-        <v>26045.41459517046</v>
+        <v>25987.92560369318</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1014,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5425000190734863</v>
       </c>
       <c r="C28" t="n">
-        <v>25546.5751953125</v>
+        <v>25486.6337890625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.6986363584345038</v>
+        <v>0.6584090861407194</v>
       </c>
       <c r="E28" t="n">
-        <v>25544.83984375</v>
+        <v>25485.79261363636</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1031,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C29" t="n">
-        <v>25054.796875</v>
+        <v>24994.1328125</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7022727240215648</v>
+        <v>0.6820454489101063</v>
       </c>
       <c r="E29" t="n">
-        <v>25053.20472301136</v>
+        <v>24992.93288352273</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1048,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C30" t="n">
-        <v>24571.64453125</v>
+        <v>24509.919921875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.7019318233836781</v>
+        <v>0.6861363595182245</v>
       </c>
       <c r="E30" t="n">
-        <v>24570.26491477273</v>
+        <v>24508.87073863636</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1065,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C31" t="n">
-        <v>24097.1279296875</v>
+        <v>24034.5166015625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7089772657914595</v>
+        <v>0.6456818255511197</v>
       </c>
       <c r="E31" t="n">
-        <v>24095.80504261364</v>
+        <v>24033.71253551136</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1082,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5625</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C32" t="n">
-        <v>23631.37890625</v>
+        <v>23568.11328125</v>
       </c>
       <c r="D32" t="n">
-        <v>0.6978409073569558</v>
+        <v>0.6501136367971246</v>
       </c>
       <c r="E32" t="n">
-        <v>23630.06178977273</v>
+        <v>23567.16477272727</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1099,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C33" t="n">
-        <v>23174.0546875</v>
+        <v>23109.3388671875</v>
       </c>
       <c r="D33" t="n">
-        <v>0.6661363677545027</v>
+        <v>0.6851136359301481</v>
       </c>
       <c r="E33" t="n">
-        <v>23172.60813210227</v>
+        <v>23108.47159090909</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1116,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C34" t="n">
-        <v>22724.63671875</v>
+        <v>22659.341796875</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7313636324622415</v>
+        <v>0.6827272772789001</v>
       </c>
       <c r="E34" t="n">
-        <v>22723.02911931818</v>
+        <v>22658.40625</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1133,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C35" t="n">
-        <v>22283.435546875</v>
+        <v>22217.06640625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7217045480554755</v>
+        <v>0.6807954582301053</v>
       </c>
       <c r="E35" t="n">
-        <v>22281.94034090909</v>
+        <v>22216.37926136364</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1150,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C36" t="n">
-        <v>21849.8837890625</v>
+        <v>21783.2080078125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7267045432871039</v>
+        <v>0.6909090930765326</v>
       </c>
       <c r="E36" t="n">
-        <v>21848.51154119318</v>
+        <v>21782.43501420454</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1167,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5775000154972076</v>
       </c>
       <c r="C37" t="n">
-        <v>21424.4560546875</v>
+        <v>21357.294921875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7044318209994923</v>
+        <v>0.6947727257555182</v>
       </c>
       <c r="E37" t="n">
-        <v>21423.01100852273</v>
+        <v>21356.44833096591</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1184,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.4800000041723251</v>
+        <v>0.570000022649765</v>
       </c>
       <c r="C38" t="n">
-        <v>21006.65234375</v>
+        <v>20939.0166015625</v>
       </c>
       <c r="D38" t="n">
-        <v>0.7248863632028754</v>
+        <v>0.6863636374473572</v>
       </c>
       <c r="E38" t="n">
-        <v>21005.18270596591</v>
+        <v>20938.11985085227</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1204,13 +1204,13 @@
         <v>0.5399999916553497</v>
       </c>
       <c r="C39" t="n">
-        <v>20596.65625</v>
+        <v>20528.1826171875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7009090943769976</v>
+        <v>0.7148863619024103</v>
       </c>
       <c r="E39" t="n">
-        <v>20595.20862926136</v>
+        <v>20527.31711647727</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1218,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C40" t="n">
-        <v>20193.3798828125</v>
+        <v>20124.8466796875</v>
       </c>
       <c r="D40" t="n">
-        <v>0.7113636352799155</v>
+        <v>0.7064772627570413</v>
       </c>
       <c r="E40" t="n">
-        <v>20192.16761363636</v>
+        <v>20124.109375</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1235,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.5224999785423279</v>
       </c>
       <c r="C41" t="n">
-        <v>19797.9013671875</v>
+        <v>19729.5693359375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7268181876702742</v>
+        <v>0.6744318170980974</v>
       </c>
       <c r="E41" t="n">
-        <v>19796.58718039773</v>
+        <v>19728.533203125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1252,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5774999856948853</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C42" t="n">
-        <v>19409.5966796875</v>
+        <v>19340.447265625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7262500036846508</v>
+        <v>0.6804545521736145</v>
       </c>
       <c r="E42" t="n">
-        <v>19408.33575994318</v>
+        <v>19339.67578125</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1269,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C43" t="n">
-        <v>19028.439453125</v>
+        <v>18958.8251953125</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7040909095243975</v>
+        <v>0.704318182034926</v>
       </c>
       <c r="E43" t="n">
-        <v>19027.21875</v>
+        <v>18958.10369318182</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1286,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5824999809265137</v>
+        <v>0.6225000023841858</v>
       </c>
       <c r="C44" t="n">
-        <v>18654.35546875</v>
+        <v>18584.7568359375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7130681872367859</v>
+        <v>0.648636362769387</v>
       </c>
       <c r="E44" t="n">
-        <v>18652.83735795454</v>
+        <v>18584.00230823864</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1303,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.4424999952316284</v>
+        <v>0.5850000083446503</v>
       </c>
       <c r="C45" t="n">
-        <v>18287.1337890625</v>
+        <v>18216.64453125</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6315909082239325</v>
+        <v>0.7044318264180963</v>
       </c>
       <c r="E45" t="n">
-        <v>18285.78231534091</v>
+        <v>18215.97425426136</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1320,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C46" t="n">
-        <v>17925.9423828125</v>
+        <v>17855.8828125</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7201136404817755</v>
+        <v>0.6932954517277804</v>
       </c>
       <c r="E46" t="n">
-        <v>17924.69424715909</v>
+        <v>17855.10262784091</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1337,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5574999898672104</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C47" t="n">
-        <v>17571.6689453125</v>
+        <v>17501.82421875</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7487499930641868</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="E47" t="n">
-        <v>17570.51402698864</v>
+        <v>17500.90767045454</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1354,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.502499982714653</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C48" t="n">
-        <v>17223.9765625</v>
+        <v>17153.9833984375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7365909056230024</v>
+        <v>0.7123863642865961</v>
       </c>
       <c r="E48" t="n">
-        <v>17222.88938210227</v>
+        <v>17153.06711647727</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1371,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C49" t="n">
-        <v>16882.833984375</v>
+        <v>16812.814453125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7248863686214794</v>
+        <v>0.6769318309697238</v>
       </c>
       <c r="E49" t="n">
-        <v>16881.72833806818</v>
+        <v>16811.95703125</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1388,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C50" t="n">
-        <v>16547.9482421875</v>
+        <v>16477.4638671875</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7153409177606757</v>
+        <v>0.7072727246717974</v>
       </c>
       <c r="E50" t="n">
-        <v>16546.74627130682</v>
+        <v>16476.716796875</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,16 +1405,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5199999809265137</v>
       </c>
       <c r="C51" t="n">
-        <v>16219.111328125</v>
+        <v>16148.82080078125</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7171590924263</v>
+        <v>0.6987500082362782</v>
       </c>
       <c r="E51" t="n">
-        <v>16217.98712713068</v>
+        <v>16147.87748579545</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1422,16 +1422,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5199999958276749</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C52" t="n">
-        <v>15896.4296875</v>
+        <v>15826.0478515625</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7269318212162365</v>
+        <v>0.6846590909090909</v>
       </c>
       <c r="E52" t="n">
-        <v>15895.24449573864</v>
+        <v>15825.21209161932</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1439,16 +1439,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5825000107288361</v>
       </c>
       <c r="C53" t="n">
-        <v>15579.541015625</v>
+        <v>15509.16357421875</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7322727225043557</v>
+        <v>0.7002272714268077</v>
       </c>
       <c r="E53" t="n">
-        <v>15578.37198153409</v>
+        <v>15508.46724076705</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1456,16 +1456,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5925000011920929</v>
       </c>
       <c r="C54" t="n">
-        <v>15268.85888671875</v>
+        <v>15198.27685546875</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6815909038890492</v>
+        <v>0.6795454567128961</v>
       </c>
       <c r="E54" t="n">
-        <v>15267.7841796875</v>
+        <v>15197.65731534091</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1473,16 +1473,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5275000184774399</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C55" t="n">
-        <v>14963.43359375</v>
+        <v>14893.19287109375</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7140909054062583</v>
+        <v>0.6753409071402117</v>
       </c>
       <c r="E55" t="n">
-        <v>14962.28098366477</v>
+        <v>14892.50355113636</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1490,16 +1490,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C56" t="n">
-        <v>14663.86767578125</v>
+        <v>14593.70556640625</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7167045474052429</v>
+        <v>0.6937499967488375</v>
       </c>
       <c r="E56" t="n">
-        <v>14662.80894886364</v>
+        <v>14593.01908735795</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1507,16 +1507,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C57" t="n">
-        <v>14370.0537109375</v>
+        <v>14300.107421875</v>
       </c>
       <c r="D57" t="n">
-        <v>0.6903409090909091</v>
+        <v>0.6962499997832559</v>
       </c>
       <c r="E57" t="n">
-        <v>14368.84641335227</v>
+        <v>14299.32146661932</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1524,16 +1524,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5200000107288361</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C58" t="n">
-        <v>14081.33837890625</v>
+        <v>14011.5078125</v>
       </c>
       <c r="D58" t="n">
-        <v>0.728295467116616</v>
+        <v>0.6810227199034258</v>
       </c>
       <c r="E58" t="n">
-        <v>14080.1728515625</v>
+        <v>14010.86363636364</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1541,16 +1541,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5625</v>
       </c>
       <c r="C59" t="n">
-        <v>13797.97021484375</v>
+        <v>13728.46240234375</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7123863697052002</v>
+        <v>0.688295451077548</v>
       </c>
       <c r="E59" t="n">
-        <v>13797.078125</v>
+        <v>13727.87047230114</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1558,16 +1558,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.4450000077486038</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C60" t="n">
-        <v>13520.5</v>
+        <v>13450.876953125</v>
       </c>
       <c r="D60" t="n">
-        <v>0.6887500015172091</v>
+        <v>0.6896590915593234</v>
       </c>
       <c r="E60" t="n">
-        <v>13519.32164417614</v>
+        <v>13450.13068181818</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1575,16 +1575,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5</v>
+        <v>0.5949999988079071</v>
       </c>
       <c r="C61" t="n">
-        <v>13247.822265625</v>
+        <v>13178.2998046875</v>
       </c>
       <c r="D61" t="n">
-        <v>0.699545453895222</v>
+        <v>0.699886376207525</v>
       </c>
       <c r="E61" t="n">
-        <v>13246.78888494318</v>
+        <v>13177.61026278409</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1592,16 +1592,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5049999952316284</v>
+        <v>0.5625</v>
       </c>
       <c r="C62" t="n">
-        <v>12980.05908203125</v>
+        <v>12910.9462890625</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6692045439373363</v>
+        <v>0.6961363662372936</v>
       </c>
       <c r="E62" t="n">
-        <v>12979.12517755682</v>
+        <v>12910.29465553977</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1609,16 +1609,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.5775000154972076</v>
       </c>
       <c r="C63" t="n">
-        <v>12717.55517578125</v>
+        <v>12648.50537109375</v>
       </c>
       <c r="D63" t="n">
-        <v>0.6965909112583507</v>
+        <v>0.686704543503848</v>
       </c>
       <c r="E63" t="n">
-        <v>12716.56383167614</v>
+        <v>12647.9384765625</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1626,16 +1626,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C64" t="n">
-        <v>12459.72509765625</v>
+        <v>12390.81884765625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6962500052018599</v>
+        <v>0.6770454536784779</v>
       </c>
       <c r="E64" t="n">
-        <v>12458.75736860795</v>
+        <v>12390.3623046875</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1643,16 +1643,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.4825000017881393</v>
+        <v>0.5225000083446503</v>
       </c>
       <c r="C65" t="n">
-        <v>12207.263671875</v>
+        <v>12138.48779296875</v>
       </c>
       <c r="D65" t="n">
-        <v>0.5967045480554755</v>
+        <v>0.6331818049604242</v>
       </c>
       <c r="E65" t="n">
-        <v>12206.24307528409</v>
+        <v>12138.01864346591</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1660,16 +1660,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C66" t="n">
-        <v>11958.93701171875</v>
+        <v>11890.8505859375</v>
       </c>
       <c r="D66" t="n">
-        <v>0.6886363571340387</v>
+        <v>0.6287499991330233</v>
       </c>
       <c r="E66" t="n">
-        <v>11957.89897017045</v>
+        <v>11890.41761363636</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1677,16 +1677,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.510000005364418</v>
+        <v>0.4450000077486038</v>
       </c>
       <c r="C67" t="n">
-        <v>11715.35498046875</v>
+        <v>11647.7197265625</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6861363649368286</v>
+        <v>0.6199999993497675</v>
       </c>
       <c r="E67" t="n">
-        <v>11714.29545454545</v>
+        <v>11647.015625</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1694,16 +1694,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5550000071525574</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C68" t="n">
-        <v>11476.56591796875</v>
+        <v>11408.701171875</v>
       </c>
       <c r="D68" t="n">
-        <v>0.7023863575675271</v>
+        <v>0.6854545474052429</v>
       </c>
       <c r="E68" t="n">
-        <v>11475.56392045455</v>
+        <v>11408.18741122159</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1711,16 +1711,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.4874999970197678</v>
+        <v>0.5725000202655792</v>
       </c>
       <c r="C69" t="n">
-        <v>11241.82763671875</v>
+        <v>11174.7802734375</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7276136441664263</v>
+        <v>0.6630681861530651</v>
       </c>
       <c r="E69" t="n">
-        <v>11240.88316761364</v>
+        <v>11174.30539772727</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1728,16 +1728,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5524999797344208</v>
       </c>
       <c r="C70" t="n">
-        <v>11012.14697265625</v>
+        <v>10945.310546875</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6737499887293036</v>
+        <v>0.6605681831186468</v>
       </c>
       <c r="E70" t="n">
-        <v>11011.21040482955</v>
+        <v>10944.6787109375</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1745,16 +1745,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5800000131130219</v>
       </c>
       <c r="C71" t="n">
-        <v>10786.5078125</v>
+        <v>10720.037109375</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6661363569172946</v>
+        <v>0.6735227270559832</v>
       </c>
       <c r="E71" t="n">
-        <v>10785.52823153409</v>
+        <v>10719.39319957386</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1762,16 +1762,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.4500000029802322</v>
       </c>
       <c r="C72" t="n">
-        <v>10564.9169921875</v>
+        <v>10499.12548828125</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7053409002043984</v>
+        <v>0.6418181766163219</v>
       </c>
       <c r="E72" t="n">
-        <v>10564.04483309659</v>
+        <v>10498.43252840909</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1779,16 +1779,16 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5274999886751175</v>
+        <v>0.574999988079071</v>
       </c>
       <c r="C73" t="n">
-        <v>10347.6962890625</v>
+        <v>10282.62890625</v>
       </c>
       <c r="D73" t="n">
-        <v>0.7220454595305703</v>
+        <v>0.6544318036599592</v>
       </c>
       <c r="E73" t="n">
-        <v>10346.740234375</v>
+        <v>10281.92169744318</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1796,16 +1796,16 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>0.4749999940395355</v>
+        <v>0.4974999874830246</v>
       </c>
       <c r="C74" t="n">
-        <v>10134.61181640625</v>
+        <v>10069.38525390625</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7037499926306985</v>
+        <v>0.6639772761951793</v>
       </c>
       <c r="E74" t="n">
-        <v>10133.71333451705</v>
+        <v>10068.86390269886</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1813,16 +1813,16 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.4925000071525574</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C75" t="n">
-        <v>9925.5673828125</v>
+        <v>9860.77294921875</v>
       </c>
       <c r="D75" t="n">
-        <v>0.6892045411196622</v>
+        <v>0.6661363623358987</v>
       </c>
       <c r="E75" t="n">
-        <v>9924.797585227272</v>
+        <v>9860.252752130682</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1830,16 +1830,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5699999928474426</v>
+        <v>0.5974999964237213</v>
       </c>
       <c r="C76" t="n">
-        <v>9720.57958984375</v>
+        <v>9656.09716796875</v>
       </c>
       <c r="D76" t="n">
-        <v>0.7032954530282454</v>
+        <v>0.6670454469594088</v>
       </c>
       <c r="E76" t="n">
-        <v>9719.7021484375</v>
+        <v>9655.633522727272</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1847,16 +1847,16 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5449999868869781</v>
       </c>
       <c r="C77" t="n">
-        <v>9519.419921875</v>
+        <v>9455.35009765625</v>
       </c>
       <c r="D77" t="n">
-        <v>0.7024999965320934</v>
+        <v>0.6543181755326011</v>
       </c>
       <c r="E77" t="n">
-        <v>9518.547230113636</v>
+        <v>9454.82040127841</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1864,16 +1864,16 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.552499994635582</v>
+        <v>0.5900000035762787</v>
       </c>
       <c r="C78" t="n">
-        <v>9321.9248046875</v>
+        <v>9258.09765625</v>
       </c>
       <c r="D78" t="n">
-        <v>0.7198863679712469</v>
+        <v>0.6697727225043557</v>
       </c>
       <c r="E78" t="n">
-        <v>9321.14462002841</v>
+        <v>9257.779030539772</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1881,16 +1881,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5074999928474426</v>
+        <v>0.5875000059604645</v>
       </c>
       <c r="C79" t="n">
-        <v>9128.5927734375</v>
+        <v>9065.20166015625</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7023863575675271</v>
+        <v>0.6665909127755598</v>
       </c>
       <c r="E79" t="n">
-        <v>9127.734818892046</v>
+        <v>9064.72762784091</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1898,16 +1898,16 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5224999934434891</v>
+        <v>0.5399999916553497</v>
       </c>
       <c r="C80" t="n">
-        <v>8938.6298828125</v>
+        <v>8875.4736328125</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7027272744612261</v>
+        <v>0.6855681755326011</v>
       </c>
       <c r="E80" t="n">
-        <v>8937.78133877841</v>
+        <v>8875.118430397728</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1915,16 +1915,16 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5649999976158142</v>
       </c>
       <c r="C81" t="n">
-        <v>8752.39697265625</v>
+        <v>8690.216796875</v>
       </c>
       <c r="D81" t="n">
-        <v>0.6625000075860457</v>
+        <v>0.6384090835397894</v>
       </c>
       <c r="E81" t="n">
-        <v>8751.65420809659</v>
+        <v>8689.669744318182</v>
       </c>
     </row>
   </sheetData>
@@ -1938,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:C120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0.009259259259259259</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1981,10 +1981,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -1992,453 +1992,453 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01851851851851852</v>
+        <v>0.02777777777777778</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007575757575757576</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007575757575757576</v>
+        <v>0.02272727272727273</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03703703703703703</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04545454545454546</v>
+        <v>0.0303030303030303</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.07407407407407407</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05303030303030303</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05303030303030303</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06060606060606061</v>
+        <v>0.09090909090909091</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.1212121212121212</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1203703703703704</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09090909090909091</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1203703703703704</v>
+        <v>0.1018518518518518</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.1590909090909091</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.1742424242424243</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.1742424242424243</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C21" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1742424242424243</v>
+        <v>0.196969696969697</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1742424242424243</v>
+        <v>0.196969696969697</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1944444444444444</v>
+        <v>0.1574074074074074</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.212962962962963</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1818181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.212962962962963</v>
+        <v>0.1759259259259259</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2348484848484849</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2348484848484849</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.212962962962963</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2314814814814815</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2424242424242424</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2314814814814815</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2424242424242424</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2407407407407407</v>
+        <v>0.2314814814814815</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25</v>
+        <v>0.2651515151515151</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.287037037037037</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25</v>
+        <v>0.2651515151515151</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.287037037037037</v>
+        <v>0.2407407407407407</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2575757575757576</v>
+        <v>0.2878787878787879</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2575757575757576</v>
+        <v>0.2878787878787879</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3106060606060606</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3106060606060606</v>
+        <v>0.303030303030303</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.2962962962962963</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3257575757575757</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.3257575757575757</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3240740740740741</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3939393939393939</v>
+        <v>0.3409090909090909</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.3787878787878788</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.3787878787878788</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -2446,10 +2446,10 @@
         <v>0.3796296296296297</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.3939393939393939</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -2457,7 +2457,7 @@
         <v>0.3796296296296297</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C47" t="n">
         <v>0.4166666666666667</v>
@@ -2468,7 +2468,7 @@
         <v>0.3981481481481481</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C48" t="n">
         <v>0.4166666666666667</v>
@@ -2479,7 +2479,7 @@
         <v>0.3981481481481481</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C49" t="n">
         <v>0.4242424242424243</v>
@@ -2487,10 +2487,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C50" t="n">
         <v>0.4242424242424243</v>
@@ -2498,859 +2498,771 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4393939393939394</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.4393939393939394</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.446969696969697</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.446969696969697</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4259259259259259</v>
+        <v>0.4537037037037037</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4621212121212121</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C56" t="n">
-        <v>0.4848484848484849</v>
+        <v>0.4621212121212121</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C57" t="n">
-        <v>0.4924242424242424</v>
+        <v>0.4772727272727273</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4924242424242424</v>
+        <v>0.4772727272727273</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4444444444444444</v>
+        <v>0.5</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4537037037037037</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5</v>
+        <v>0.4924242424242424</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.4537037037037037</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C63" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.5075757575757576</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5378787878787878</v>
+        <v>0.5075757575757576</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.5462962962962963</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5092592592592593</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.5303030303030303</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5092592592592593</v>
+        <v>0.5740740740740741</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C67" t="n">
-        <v>0.553030303030303</v>
+        <v>0.5606060606060606</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C68" t="n">
-        <v>0.553030303030303</v>
+        <v>0.5606060606060606</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C70" t="n">
-        <v>0.5606060606060606</v>
+        <v>0.5757575757575758</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5925925925925926</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5984848484848485</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5681818181818182</v>
+        <v>0.5984848484848485</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5370370370370371</v>
+        <v>0.6018518518518519</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6212121212121212</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6212121212121212</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.6287878787878788</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.6287878787878788</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C77" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C78" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.6363636363636364</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C79" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.6439393939393939</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6759259259259259</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6212121212121212</v>
+        <v>0.6439393939393939</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6759259259259259</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6287878787878788</v>
+        <v>0.6590909090909091</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.6851851851851852</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6439393939393939</v>
+        <v>0.7272727272727273</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.7424242424242424</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6515151515151515</v>
+        <v>0.7424242424242424</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.7129629629629629</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C87" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7651515151515151</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C88" t="n">
-        <v>0.7045454545454546</v>
+        <v>0.7651515151515151</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7314814814814815</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C89" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.7954545454545454</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7121212121212122</v>
+        <v>0.7954545454545454</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.75</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C92" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.6759259259259259</v>
+        <v>0.75</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C93" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.8333333333333334</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C95" t="n">
-        <v>0.803030303030303</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7870370370370371</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.803030303030303</v>
+        <v>0.8409090909090909</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7870370370370371</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8106060606060606</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8106060606060606</v>
+        <v>0.8484848484848485</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7037037037037037</v>
+        <v>0.7962962962962963</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8560606060606061</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8560606060606061</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8240740740740741</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.8636363636363636</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.8240740740740741</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C103" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.75</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8409090909090909</v>
+        <v>0.9090909090909091</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.75</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8703703703703703</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.9242424242424242</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.9242424242424242</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9318181818181818</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8636363636363636</v>
+        <v>0.9318181818181818</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.946969696969697</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.946969696969697</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9259259259259259</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.9621212121212122</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.9621212121212122</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9351851851851852</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.9772727272727273</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9629629629629629</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9015151515151515</v>
+        <v>0.9848484848484849</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9015151515151515</v>
+        <v>0.9848484848484849</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9814814814814815</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9242424242424242</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="n">
-        <v>0.9351851851851852</v>
+        <v>1</v>
       </c>
       <c r="B120" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881032</v>
       </c>
       <c r="C120" t="n">
-        <v>0.9242424242424242</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9351851851851852</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9318181818181818</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9318181818181818</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9444444444444444</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9772727272727273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9537037037037037</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9772727272727273</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>0.9537037037037037</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>0.9907407407407407</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C126" t="n">
-        <v>0.9848484848484849</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" t="n">
-        <v>0.9907407407407407</v>
-      </c>
-      <c r="B127" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" t="n">
-        <v>1</v>
-      </c>
-      <c r="B128" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3365,7 +3277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3389,7 +3301,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C2" t="n">
         <v>0.009259259259259259</v>
@@ -3397,13 +3309,13 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.01515151515151515</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009259259259259259</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -3411,21 +3323,21 @@
         <v>0.01515151515151515</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.01851851851851852</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.02272727272727273</v>
+        <v>0.01515151515151515</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04629629629629629</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3433,29 +3345,29 @@
         <v>0.02272727272727273</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.03703703703703703</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.06481481481481481</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.06818181818181818</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C8" t="n">
         <v>0.06481481481481481</v>
@@ -3463,32 +3375,32 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.03787878787878788</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.06481481481481481</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.07575757575757576</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08333333333333333</v>
+        <v>0.07407407407407407</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.05303030303030303</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C11" t="n">
         <v>0.08333333333333333</v>
@@ -3496,32 +3408,32 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.09848484848484848</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.08333333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09259259259259259</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1060606060606061</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C14" t="n">
         <v>0.1111111111111111</v>
@@ -3529,21 +3441,21 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.07575757575757576</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.1296296296296296</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.1136363636363636</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C16" t="n">
         <v>0.1296296296296296</v>
@@ -3551,35 +3463,35 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1296296296296296</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
-        <v>0.1212121212121212</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1363636363636364</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1851851851851852</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -3587,21 +3499,21 @@
         <v>0.1363636363636364</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C20" t="n">
-        <v>0.212962962962963</v>
+        <v>0.1759259259259259</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="n">
-        <v>0.143939393939394</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C21" t="n">
-        <v>0.212962962962963</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3609,21 +3521,21 @@
         <v>0.143939393939394</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="n">
-        <v>0.1515151515151515</v>
+        <v>0.143939393939394</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3631,21 +3543,21 @@
         <v>0.1515151515151515</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25</v>
+        <v>0.2037037037037037</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="n">
-        <v>0.1590909090909091</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C25" t="n">
-        <v>0.25</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -3653,21 +3565,21 @@
         <v>0.1590909090909091</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.212962962962963</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.1590909090909091</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2592592592592592</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -3675,208 +3587,208 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1742424242424243</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2685185185185185</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.1742424242424243</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2962962962962963</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.1893939393939394</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2592592592592592</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.196969696969697</v>
+        <v>0.2045454545454546</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3055555555555556</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.196969696969697</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.2685185185185185</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2348484848484849</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3148148148148148</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2045454545454546</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.287037037037037</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3240740740740741</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3055555555555556</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.2878787878787879</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3148148148148148</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.3409090909090909</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3518518518518519</v>
+        <v>0.3240740740740741</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.2954545454545455</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3240740740740741</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.3560606060606061</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3611111111111111</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3484848484848485</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3703703703703703</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3560606060606061</v>
+        <v>0.3712121212121212</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3888888888888889</v>
+        <v>0.3518518518518519</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -3884,7 +3796,7 @@
         <v>0.3712121212121212</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C47" t="n">
         <v>0.3888888888888889</v>
@@ -3892,13 +3804,13 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3712121212121212</v>
+        <v>0.3787878787878788</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3981481481481481</v>
+        <v>0.3888888888888889</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3906,7 +3818,7 @@
         <v>0.3787878787878788</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C49" t="n">
         <v>0.3981481481481481</v>
@@ -3914,21 +3826,21 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.3787878787878788</v>
+        <v>0.4015151515151515</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4074074074074074</v>
+        <v>0.3981481481481481</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.4015151515151515</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C51" t="n">
         <v>0.4074074074074074</v>
@@ -3936,21 +3848,21 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.3863636363636364</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4166666666666667</v>
+        <v>0.4074074074074074</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.4242424242424243</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C53" t="n">
         <v>0.4166666666666667</v>
@@ -3958,142 +3870,142 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4015151515151515</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.4166666666666667</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C55" t="n">
-        <v>0.4351851851851852</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4090909090909091</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C56" t="n">
-        <v>0.462962962962963</v>
+        <v>0.4259259259259259</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.4696969696969697</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C57" t="n">
-        <v>0.462962962962963</v>
+        <v>0.4537037037037037</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C58" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.4537037037037037</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.4924242424242424</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C59" t="n">
-        <v>0.4722222222222222</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.4393939393939394</v>
+        <v>0.5</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C60" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.462962962962963</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.446969696969697</v>
+        <v>0.5</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4814814814814815</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.446969696969697</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C62" t="n">
-        <v>0.4907407407407408</v>
+        <v>0.4722222222222222</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C63" t="n">
-        <v>0.4907407407407408</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.4545454545454545</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C64" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.4621212121212121</v>
+        <v>0.5227272727272727</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5185185185185185</v>
+        <v>0.5277777777777778</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.4621212121212121</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C66" t="n">
         <v>0.5277777777777778</v>
@@ -4101,21 +4013,21 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.5378787878787878</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5277777777777778</v>
+        <v>0.5462962962962963</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.4696969696969697</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C68" t="n">
         <v>0.5462962962962963</v>
@@ -4123,21 +4035,21 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5</v>
+        <v>0.553030303030303</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C69" t="n">
-        <v>0.5462962962962963</v>
+        <v>0.5555555555555556</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.5</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C70" t="n">
         <v>0.5555555555555556</v>
@@ -4145,617 +4057,540 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.5075757575757576</v>
+        <v>0.5606060606060606</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C71" t="n">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.5075757575757576</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C72" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.5833333333333334</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5648148148148148</v>
+        <v>0.6018518518518519</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.5151515151515151</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.6018518518518519</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5740740740740741</v>
+        <v>0.6203703703703703</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.5303030303030303</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6203703703703703</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6060606060606061</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6481481481481481</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6481481481481481</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6212121212121212</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5925925925925926</v>
+        <v>0.6574074074074074</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.5757575757575758</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C80" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6574074074074074</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C81" t="n">
-        <v>0.6018518518518519</v>
+        <v>0.6759259259259259</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.6759259259259259</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.6742424242424242</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C83" t="n">
-        <v>0.6203703703703703</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.5909090909090909</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C84" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.7037037037037037</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.6296296296296297</v>
+        <v>0.7129629629629629</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.5984848484848485</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.7129629629629629</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7121212121212122</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C87" t="n">
-        <v>0.6388888888888888</v>
+        <v>0.7592592592592593</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.6060606060606061</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C88" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7592592592592593</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.7348484848484849</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C89" t="n">
-        <v>0.6481481481481481</v>
+        <v>0.7685185185185185</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.6136363636363636</v>
+        <v>0.75</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C90" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.7685185185185185</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.6893939393939394</v>
+        <v>0.75</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C91" t="n">
-        <v>0.6851851851851852</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.6893939393939394</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C92" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7777777777777778</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.7424242424242424</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C93" t="n">
-        <v>0.6944444444444444</v>
+        <v>0.7870370370370371</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.7424242424242424</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.7870370370370371</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.75</v>
+        <v>0.7651515151515151</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C95" t="n">
-        <v>0.7129629629629629</v>
+        <v>0.8240740740740741</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.75</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.8240740740740741</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7592592592592593</v>
+        <v>0.8425925925925926</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.7575757575757576</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C98" t="n">
-        <v>0.7685185185185185</v>
+        <v>0.8425925925925926</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.803030303030303</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C99" t="n">
-        <v>0.7685185185185185</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.7727272727272727</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C100" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8518518518518519</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C101" t="n">
-        <v>0.7777777777777778</v>
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.7954545454545454</v>
+        <v>0.8257575757575758</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C102" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.8703703703703703</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8257575757575758</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C103" t="n">
-        <v>0.7870370370370371</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.8181818181818182</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C104" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8888888888888888</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8409090909090909</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C105" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.8981481481481481</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.8257575757575758</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C106" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.8981481481481481</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C107" t="n">
-        <v>0.8148148148148148</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.8484848484848485</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9074074074074074</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.8863636363636364</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C110" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9166666666666666</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C111" t="n">
-        <v>0.8703703703703703</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.8939393939393939</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C112" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.9259259259259259</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C113" t="n">
-        <v>0.8796296296296297</v>
+        <v>0.9351851851851852</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="B114" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C114" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9351851851851852</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="B115" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C115" t="n">
-        <v>0.8888888888888888</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="B116" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C116" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9444444444444444</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9772727272727273</v>
       </c>
       <c r="B117" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C117" t="n">
-        <v>0.9074074074074074</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="n">
-        <v>0.9393939393939394</v>
+        <v>1</v>
       </c>
       <c r="B118" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C118" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9722222222222222</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="n">
-        <v>0.946969696969697</v>
+        <v>1</v>
       </c>
       <c r="B119" t="n">
-        <v>0.5250420875420876</v>
+        <v>0.5199214365881033</v>
       </c>
       <c r="C119" t="n">
-        <v>0.9166666666666666</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="n">
-        <v>0.946969696969697</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.9259259259259259</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.9259259259259259</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="n">
-        <v>0.9545454545454546</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="B123" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C123" t="n">
-        <v>0.9629629629629629</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" t="n">
-        <v>0.9924242424242424</v>
-      </c>
-      <c r="B124" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C124" t="n">
-        <v>0.9814814814814815</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" t="n">
-        <v>1</v>
-      </c>
-      <c r="B125" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C125" t="n">
-        <v>0.9814814814814815</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" t="n">
-        <v>1</v>
-      </c>
-      <c r="B126" t="n">
-        <v>0.5250420875420876</v>
-      </c>
-      <c r="C126" t="n">
         <v>1</v>
       </c>
     </row>
